--- a/output/StructureDefinition-ndh-Restriction.xlsx
+++ b/output/StructureDefinition-ndh-Restriction.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>NDH Restriction</t>
+    <t>NDH Base Restriction</t>
   </si>
   <si>
     <t>Status</t>
